--- a/Test Data Driven/AI-Generated/Common/fillShippingDetailsAndCompleteOrder.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingDetailsAndCompleteOrder.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,80 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>f3 add</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>f3 city</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f3 first</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>f3 last</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0303030</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>f2 arr</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>f2 city</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{{address}} first name</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>f2 last name</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f2 222</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>f2 zipcode</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/fillShippingDetailsAndCompleteOrder.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingDetailsAndCompleteOrder.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,80 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>f4 address</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>f4 city</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f4 first</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">f4 lasst </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>040404</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0404</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0404</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>firsy</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>033</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
